--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,57 +40,48 @@
     <t>name</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>fucking</t>
+    <t>dangerous</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
     <t>hate</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>[UNK]</t>
   </si>
   <si>
@@ -106,12 +97,12 @@
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
@@ -127,10 +118,16 @@
     <t>wow</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>new</t>
+    <t>watch</t>
   </si>
   <si>
     <t>netflix</t>
@@ -511,10 +508,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -572,13 +569,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -590,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -622,13 +619,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -640,19 +637,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -664,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -672,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9134615384615384</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C5">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -690,31 +687,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5">
+        <v>0.82</v>
+      </c>
+      <c r="L5">
+        <v>41</v>
+      </c>
+      <c r="M5">
+        <v>41</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>9</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5">
-        <v>0.86</v>
-      </c>
-      <c r="L5">
-        <v>43</v>
-      </c>
-      <c r="M5">
-        <v>43</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -722,13 +719,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8939393939393939</v>
+        <v>0.8942307692307693</v>
       </c>
       <c r="C6">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="D6">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -740,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.7586206896551724</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="L6">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -764,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -772,13 +769,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -790,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.7192982456140351</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -814,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -822,13 +819,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8125</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -840,19 +837,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.6666666666666666</v>
+        <v>0.6533333333333333</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -864,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -872,28 +869,28 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D9">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="K9">
         <v>0.6</v>
@@ -922,13 +919,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7368421052631579</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -940,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.5925925925925926</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L10">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M10">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -964,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -972,13 +969,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -990,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K11">
         <v>0.4242424242424243</v>
@@ -1022,13 +1019,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1040,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.3541666666666667</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L12">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M12">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1064,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1072,13 +1069,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5833333333333334</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1090,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.2213114754098361</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L13">
-        <v>243</v>
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>243</v>
+        <v>13</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1114,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>855</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1122,13 +1119,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5652173913043478</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1140,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.2203389830508475</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1164,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1172,13 +1169,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5319148936170213</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1190,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.02592592592592593</v>
+        <v>0.2358834244080146</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>259</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>259</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1214,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>526</v>
+        <v>839</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1222,13 +1219,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5217391304347826</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C16">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1240,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.02108433734939759</v>
+        <v>0.02922077922077922</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1264,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>650</v>
+        <v>598</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1272,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4615384615384616</v>
+        <v>0.04682274247491638</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1290,13 +1287,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14</v>
+        <v>285</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K17">
-        <v>0.01920614596670935</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="L17">
         <v>15</v>
@@ -1314,109 +1311,85 @@
         <v>0</v>
       </c>
       <c r="Q17">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.02409638554216868</v>
+      </c>
+      <c r="L18">
+        <v>16</v>
+      </c>
+      <c r="M18">
+        <v>16</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>0.01920614596670935</v>
+      </c>
+      <c r="L19">
+        <v>15</v>
+      </c>
+      <c r="M19">
+        <v>15</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>766</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.3846153846153846</v>
-      </c>
-      <c r="C18">
-        <v>15</v>
-      </c>
-      <c r="D18">
-        <v>15</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>24</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18">
-        <v>0.01728110599078341</v>
-      </c>
-      <c r="L18">
-        <v>30</v>
-      </c>
-      <c r="M18">
-        <v>30</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="C19">
-        <v>12</v>
-      </c>
-      <c r="D19">
-        <v>12</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>66</v>
-      </c>
-    </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.04713804713804714</v>
-      </c>
-      <c r="C20">
-        <v>14</v>
-      </c>
-      <c r="D20">
-        <v>16</v>
-      </c>
-      <c r="E20">
-        <v>0.12</v>
-      </c>
-      <c r="F20">
-        <v>0.88</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>283</v>
+      <c r="J20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>0.01152073732718894</v>
+      </c>
+      <c r="L20">
+        <v>20</v>
+      </c>
+      <c r="M20">
+        <v>20</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1716</v>
       </c>
     </row>
   </sheetData>
